--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -442,9 +442,6 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>結果の状態【詳細参照】</t>
-  </si>
-  <si>
     <t>結果の状態</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -882,9 +876,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
@@ -944,9 +935,6 @@
     <t>infectious-agent</t>
   </si>
   <si>
-    <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用【詳細参照】</t>
-  </si>
-  <si>
     <t>同定菌名を表現する場合に使用するコード、JANIS菌名コードを利用</t>
   </si>
   <si>
@@ -1008,9 +996,6 @@
     <t>antimicrobial-drug</t>
   </si>
   <si>
-    <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用【詳細参照】</t>
-  </si>
-  <si>
     <t>抗菌薬コードを表現する場合に使用するコード、JANIS抗菌薬コードを利用</t>
   </si>
   <si>
@@ -1051,9 +1036,6 @@
     <t>jlac10</t>
   </si>
   <si>
-    <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用【詳細参照】</t>
-  </si>
-  <si>
     <t>塗抹結果、培養・同定結果を表現する場合に使用するコード、JLAC10を利用</t>
   </si>
   <si>
@@ -1098,9 +1080,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
@@ -1129,9 +1108,6 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
@@ -1152,9 +1128,6 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
@@ -1215,9 +1188,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
@@ -1240,9 +1210,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
@@ -1269,9 +1236,6 @@
   <si>
     <t>Quantity
 CodeableConceptstring</t>
-  </si>
-  <si>
-    <t>検査によって得られた値を格納する【詳細参照】</t>
   </si>
   <si>
     <t>検査によって得られた値を格納する</t>
@@ -1304,9 +1268,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
@@ -1339,9 +1300,6 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用【詳細参照】</t>
-  </si>
-  <si>
     <t>高、低、正常、High、low、 normal等、薬剤感受性結果（判定）を表現する場合に使用</t>
   </si>
   <si>
@@ -1374,9 +1332,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関するコメント</t>
@@ -1455,9 +1410,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
@@ -1483,9 +1435,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
@@ -1509,9 +1458,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
@@ -1684,9 +1630,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
@@ -1706,9 +1649,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
@@ -1719,9 +1659,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
@@ -3658,13 +3595,13 @@
         <v>135</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3689,13 +3626,13 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
@@ -3728,19 +3665,19 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3748,10 +3685,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3759,7 +3696,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3774,19 +3711,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3815,23 +3752,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3855,10 +3792,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3866,13 +3803,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
@@ -3894,19 +3831,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3931,11 +3868,11 @@
         <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3953,7 +3890,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3977,10 +3914,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3988,10 +3925,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4014,13 +3951,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4071,7 +4008,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -4095,7 +4032,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -4106,10 +4043,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4138,7 +4075,7 @@
         <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>101</v>
@@ -4179,19 +4116,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -4215,7 +4152,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -4226,10 +4163,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4252,19 +4189,19 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4313,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4334,10 +4271,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4348,10 +4285,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4374,13 +4311,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4431,7 +4368,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4455,7 +4392,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4466,10 +4403,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4498,7 +4435,7 @@
         <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>101</v>
@@ -4539,19 +4476,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4575,7 +4512,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4586,10 +4523,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4615,23 +4552,23 @@
         <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4673,7 +4610,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4694,10 +4631,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4708,10 +4645,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4734,16 +4671,16 @@
         <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4793,7 +4730,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4814,10 +4751,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4828,10 +4765,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4857,21 +4794,21 @@
         <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4913,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4934,10 +4871,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4948,10 +4885,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4974,17 +4911,17 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -5033,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -5054,10 +4991,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -5068,10 +5005,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5094,19 +5031,19 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -5155,7 +5092,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -5176,10 +5113,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -5190,10 +5127,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5216,19 +5153,19 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5277,7 +5214,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5298,10 +5235,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5312,13 +5249,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
@@ -5340,19 +5277,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5381,7 +5318,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5399,7 +5336,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5423,10 +5360,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5434,10 +5371,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5460,13 +5397,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5517,7 +5454,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5541,7 +5478,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5552,10 +5489,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5584,7 +5521,7 @@
         <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>101</v>
@@ -5625,19 +5562,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5661,7 +5598,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5672,10 +5609,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5698,19 +5635,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5759,7 +5696,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5780,10 +5717,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5794,10 +5731,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5820,13 +5757,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5877,7 +5814,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5901,7 +5838,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5912,10 +5849,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5944,7 +5881,7 @@
         <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>101</v>
@@ -5985,19 +5922,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -6021,7 +5958,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -6032,10 +5969,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6061,23 +5998,23 @@
         <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -6119,7 +6056,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -6140,10 +6077,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -6154,10 +6091,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6180,16 +6117,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6239,7 +6176,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6260,10 +6197,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6274,10 +6211,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6303,21 +6240,21 @@
         <v>72</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>41</v>
@@ -6359,7 +6296,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6380,10 +6317,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6394,10 +6331,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6420,17 +6357,17 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6440,7 +6377,7 @@
         <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>41</v>
@@ -6479,7 +6416,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6500,10 +6437,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6514,10 +6451,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6540,19 +6477,19 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6601,7 +6538,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6622,10 +6559,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6636,10 +6573,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6662,19 +6599,19 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6723,7 +6660,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6744,10 +6681,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6758,13 +6695,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>41</v>
@@ -6786,19 +6723,19 @@
         <v>41</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6823,11 +6760,11 @@
         <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6845,7 +6782,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -6869,10 +6806,10 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>41</v>
@@ -6880,10 +6817,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6906,13 +6843,13 @@
         <v>41</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6963,7 +6900,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6987,7 +6924,7 @@
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>41</v>
@@ -6998,10 +6935,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7030,7 +6967,7 @@
         <v>99</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>101</v>
@@ -7071,19 +7008,19 @@
         <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -7107,7 +7044,7 @@
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>41</v>
@@ -7118,10 +7055,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7144,19 +7081,19 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -7205,7 +7142,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -7226,10 +7163,10 @@
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>41</v>
@@ -7240,10 +7177,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7266,13 +7203,13 @@
         <v>41</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7323,7 +7260,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7347,7 +7284,7 @@
         <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>41</v>
@@ -7358,10 +7295,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7390,7 +7327,7 @@
         <v>99</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>101</v>
@@ -7431,19 +7368,19 @@
         <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7467,7 +7404,7 @@
         <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>41</v>
@@ -7478,10 +7415,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7507,23 +7444,23 @@
         <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>41</v>
@@ -7565,7 +7502,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7586,10 +7523,10 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>41</v>
@@ -7600,10 +7537,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7626,16 +7563,16 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7685,7 +7622,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7706,10 +7643,10 @@
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
@@ -7720,10 +7657,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7749,14 +7686,14 @@
         <v>72</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7805,7 +7742,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7826,10 +7763,10 @@
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7840,10 +7777,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7866,17 +7803,17 @@
         <v>53</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7925,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7946,10 +7883,10 @@
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
@@ -7960,10 +7897,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7986,19 +7923,19 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -8047,7 +7984,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -8068,10 +8005,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -8082,10 +8019,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8108,19 +8045,19 @@
         <v>53</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>41</v>
@@ -8169,7 +8106,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -8190,10 +8127,10 @@
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
@@ -8204,14 +8141,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8230,19 +8167,19 @@
         <v>53</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8267,13 +8204,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8291,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>52</v>
@@ -8306,30 +8243,30 @@
         <v>64</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8352,13 +8289,13 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8409,7 +8346,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8433,7 +8370,7 @@
         <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
@@ -8444,10 +8381,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8476,7 +8413,7 @@
         <v>99</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>101</v>
@@ -8517,19 +8454,19 @@
         <v>41</v>
       </c>
       <c r="AB53" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF53" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8553,7 +8490,7 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
@@ -8564,10 +8501,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8590,19 +8527,19 @@
         <v>53</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8639,17 +8576,17 @@
         <v>41</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8670,10 +8607,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8684,13 +8621,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8712,19 +8649,19 @@
         <v>53</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>41</v>
@@ -8749,11 +8686,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8771,7 +8708,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8792,10 +8729,10 @@
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8806,10 +8743,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8832,13 +8769,13 @@
         <v>41</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8889,7 +8826,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8913,7 +8850,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8924,10 +8861,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8956,7 +8893,7 @@
         <v>99</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>101</v>
@@ -8997,19 +8934,19 @@
         <v>41</v>
       </c>
       <c r="AB57" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -9033,7 +8970,7 @@
         <v>41</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>41</v>
@@ -9044,10 +8981,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9073,23 +9010,23 @@
         <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9131,7 +9068,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -9152,10 +9089,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -9166,10 +9103,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9192,16 +9129,16 @@
         <v>53</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N59" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9251,7 +9188,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9272,10 +9209,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9286,10 +9223,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9315,14 +9252,14 @@
         <v>72</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9371,7 +9308,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9392,10 +9329,10 @@
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9406,10 +9343,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9432,17 +9369,17 @@
         <v>53</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9491,7 +9428,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9512,10 +9449,10 @@
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9526,10 +9463,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9552,19 +9489,19 @@
         <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9613,7 +9550,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9634,10 +9571,10 @@
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9648,13 +9585,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9676,19 +9613,19 @@
         <v>53</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -9713,11 +9650,11 @@
         <v>41</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9735,7 +9672,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9756,10 +9693,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9770,10 +9707,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9796,13 +9733,13 @@
         <v>41</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9853,7 +9790,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9877,7 +9814,7 @@
         <v>41</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9888,10 +9825,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9920,7 +9857,7 @@
         <v>99</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>101</v>
@@ -9961,19 +9898,19 @@
         <v>41</v>
       </c>
       <c r="AB65" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9997,7 +9934,7 @@
         <v>41</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -10008,10 +9945,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10037,23 +9974,23 @@
         <v>66</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10095,7 +10032,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -10116,10 +10053,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -10130,10 +10067,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10156,16 +10093,16 @@
         <v>53</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10215,7 +10152,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10236,10 +10173,10 @@
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10250,10 +10187,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10279,14 +10216,14 @@
         <v>72</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -10335,7 +10272,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10356,10 +10293,10 @@
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10370,10 +10307,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10396,17 +10333,17 @@
         <v>53</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -10455,7 +10392,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10476,10 +10413,10 @@
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>41</v>
@@ -10490,10 +10427,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10516,19 +10453,19 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10577,7 +10514,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -10598,10 +10535,10 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>41</v>
@@ -10612,13 +10549,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10640,19 +10577,19 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10677,11 +10614,11 @@
         <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10699,7 +10636,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10720,10 +10657,10 @@
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
@@ -10734,10 +10671,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10760,13 +10697,13 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10817,7 +10754,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10841,7 +10778,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10852,10 +10789,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10884,7 +10821,7 @@
         <v>99</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>101</v>
@@ -10925,19 +10862,19 @@
         <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF73" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10961,7 +10898,7 @@
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
@@ -10972,10 +10909,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11001,23 +10938,23 @@
         <v>66</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11059,7 +10996,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -11080,10 +11017,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>
@@ -11094,10 +11031,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11120,16 +11057,16 @@
         <v>53</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N75" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11179,7 +11116,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -11200,10 +11137,10 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>41</v>
@@ -11214,10 +11151,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11243,14 +11180,14 @@
         <v>72</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>41</v>
@@ -11299,7 +11236,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>39</v>
@@ -11320,10 +11257,10 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>41</v>
@@ -11334,10 +11271,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11360,17 +11297,17 @@
         <v>53</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -11419,7 +11356,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -11440,10 +11377,10 @@
         <v>41</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>41</v>
@@ -11454,10 +11391,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11480,19 +11417,19 @@
         <v>53</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="O78" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>41</v>
@@ -11541,7 +11478,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -11562,10 +11499,10 @@
         <v>41</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>41</v>
@@ -11576,10 +11513,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11602,19 +11539,19 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11663,7 +11600,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -11684,10 +11621,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11698,10 +11635,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11724,19 +11661,19 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11785,7 +11722,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11800,19 +11737,19 @@
         <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11820,10 +11757,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11846,16 +11783,16 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11905,7 +11842,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11926,13 +11863,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11940,14 +11877,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11966,19 +11903,19 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12027,7 +11964,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12042,19 +11979,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12062,14 +11999,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12088,19 +12025,19 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12149,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12164,19 +12101,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12184,10 +12121,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12210,16 +12147,16 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12269,7 +12206,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12290,13 +12227,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12304,10 +12241,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12330,19 +12267,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12391,7 +12328,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12406,19 +12343,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12426,10 +12363,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12452,19 +12389,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12513,7 +12450,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12522,7 +12459,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12531,27 +12468,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12574,19 +12511,19 @@
         <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12611,13 +12548,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12635,7 +12572,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12644,7 +12581,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12659,7 +12596,7 @@
         <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12670,14 +12607,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12696,19 +12633,19 @@
         <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12733,13 +12670,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12757,7 +12694,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12775,27 +12712,27 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12818,19 +12755,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12879,7 +12816,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12900,10 +12837,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12914,10 +12851,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12940,16 +12877,16 @@
         <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12975,13 +12912,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -12999,7 +12936,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13017,27 +12954,27 @@
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13060,19 +12997,19 @@
         <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13097,13 +13034,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13121,7 +13058,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13142,10 +13079,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13156,10 +13093,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13182,16 +13119,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13241,7 +13178,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13259,27 +13196,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13302,16 +13239,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13361,7 +13298,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13379,27 +13316,27 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13422,19 +13359,19 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13483,7 +13420,7 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13495,7 +13432,7 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
@@ -13504,10 +13441,10 @@
         <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13518,10 +13455,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13544,13 +13481,13 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13601,7 +13538,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13625,7 +13562,7 @@
         <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13636,10 +13573,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13668,7 +13605,7 @@
         <v>99</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>101</v>
@@ -13721,7 +13658,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13745,7 +13682,7 @@
         <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
@@ -13756,14 +13693,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13785,10 +13722,10 @@
         <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>101</v>
@@ -13843,7 +13780,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13878,10 +13815,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13904,13 +13841,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13961,7 +13898,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13970,7 +13907,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -13982,10 +13919,10 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
@@ -13996,10 +13933,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14022,13 +13959,13 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14079,7 +14016,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14088,7 +14025,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14100,10 +14037,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14114,10 +14051,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14140,19 +14077,19 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -14180,10 +14117,10 @@
         <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14201,7 +14138,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14219,13 +14156,13 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14236,10 +14173,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14262,19 +14199,19 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
@@ -14299,13 +14236,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14323,7 +14260,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14341,13 +14278,13 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14358,10 +14295,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14384,17 +14321,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14443,7 +14380,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14467,7 +14404,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14478,10 +14415,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14504,13 +14441,13 @@
         <v>41</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14561,7 +14498,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14582,10 +14519,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14596,10 +14533,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14622,16 +14559,16 @@
         <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14681,7 +14618,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14702,10 +14639,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14716,10 +14653,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14742,16 +14679,16 @@
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14801,7 +14738,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14822,10 +14759,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14836,10 +14773,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14862,19 +14799,19 @@
         <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14923,7 +14860,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14944,10 +14881,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14958,10 +14895,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14984,13 +14921,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15041,7 +14978,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -15065,7 +15002,7 @@
         <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15076,10 +15013,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15108,7 +15045,7 @@
         <v>99</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>101</v>
@@ -15161,7 +15098,7 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
@@ -15185,7 +15122,7 @@
         <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15196,14 +15133,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15225,10 +15162,10 @@
         <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>101</v>
@@ -15283,7 +15220,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15318,10 +15255,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15344,19 +15281,19 @@
         <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15381,13 +15318,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15405,7 +15342,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>52</v>
@@ -15423,16 +15360,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15440,10 +15377,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15466,19 +15403,19 @@
         <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15527,7 +15464,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15545,27 +15482,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15588,19 +15525,19 @@
         <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
@@ -15625,13 +15562,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15649,7 +15586,7 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
@@ -15658,7 +15595,7 @@
         <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15673,7 +15610,7 @@
         <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15684,14 +15621,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15710,19 +15647,19 @@
         <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
@@ -15747,13 +15684,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15771,7 +15708,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15789,27 +15726,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15835,16 +15772,16 @@
         <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15893,7 +15830,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15914,10 +15851,10 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>94</v>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>94</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-microbiology.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
